--- a/mbs-perturbation/bottleneck/elm/nearmiss/bottleneck_elm_rbf_linf_nearmiss_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/nearmiss/bottleneck_elm_rbf_linf_nearmiss_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4532163742690059</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3882352941176471</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.490625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02111111111111111</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04010025062656641</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4187682748538012</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
